--- a/UKBS_list.xlsx
+++ b/UKBS_list.xlsx
@@ -1123,91 +1123,91 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Teesside University</t>
+          <t>School for Business and Society, University of York</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>University of Leicester, School of Business</t>
+          <t>Teesside University</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>University of the Arts London, London College of Fashion, Fashion Business School</t>
+          <t>University of Leicester, School of Business</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>University of Northampton, Faculty of Business and Law</t>
+          <t>University of the Arts London, London College of Fashion, Fashion Business School</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ulster University Business School</t>
+          <t>University of Northampton, Faculty of Business and Law</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>University College London, Department of Management, Science and Innovation</t>
+          <t>Ulster University Business School</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>UWS Business School</t>
+          <t>University College London, Department of Management, Science and Innovation</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Warwick Business School</t>
+          <t>UWS Business School</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Westminster Business School</t>
+          <t>Warwick Business School</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Winchester Business School</t>
+          <t>Westminster Business School</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wolverhampton Business School</t>
+          <t>Winchester Business School</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Worcester Business School</t>
+          <t>Wolverhampton Business School</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>The York Management School</t>
+          <t>Worcester Business School</t>
         </is>
       </c>
     </row>
